--- a/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,36</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-43,21%</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>-13,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,87%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 2,61</t>
+          <t>-30,98; 7,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 17,76</t>
+          <t>-12,93; 19,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 31,48</t>
+          <t>-25,33; 7,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,4; 16,04</t>
+          <t>-21,68; 11,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 168,81</t>
+          <t>-34,64; 10,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,68; 176,52</t>
+          <t>-13,68; 26,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-28,27; 9,66</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-22,87; 13,99</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,03%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,35</t>
+          <t>-0,19; 24,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 3,93</t>
+          <t>-5,16; 11,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 9,21</t>
+          <t>-9,85; 9,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 96,34</t>
+          <t>-7,46; 11,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 29,67</t>
+          <t>-0,23; 38,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 70,66</t>
+          <t>-5,75; 15,5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 12,96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 14,94</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>15,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,31</t>
+          <t>5,51; 26,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 3,05</t>
+          <t>-3,37; 15,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 12,65</t>
+          <t>-4,91; 14,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 106,52</t>
+          <t>-9,01; 11,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 38,17</t>
+          <t>7,3; 43,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 163,85</t>
+          <t>-3,88; 21,77</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 21,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-10,64; 15,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 11,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 38,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 22,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 81,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 17,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 10,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 6,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 6,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 26,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 13,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 8,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 8,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-10,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,78</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,31</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-13,19%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-8,87%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,68%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.96994382196974</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.98022074540779</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-10.53410572490263</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.361895925057612</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1556841717134378</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.02254456002300671</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1190350572644944</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.03722526819818981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-30,98; 7,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,93; 19,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-25,33; 7,6</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,68; 11,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-34,64; 10,49</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-13,68; 26,88</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-28,27; 9,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-22,87; 13,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-32.84848710969661</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.12836764217766</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-29.50751148727617</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-21.78060477797593</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3670707150571954</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1185070834486713</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3169348032574709</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2311372423303024</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.791272204478875</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.08113543116286</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.349617169504862</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.938462444552</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.06319172850446605</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2833561896141774</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.06281133382141905</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.131555788659093</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 24,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 11,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 9,61</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 11,02</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 38,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 15,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,81; 12,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; 14,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.82839253409974</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.020409712590912</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2831793908150471</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.579674806838927</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1302664097918521</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.06028030060728506</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.003536975970550473</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.01956302067634115</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>22,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1533113948330779</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.377797933293266</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.14853101901403</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.478653272223043</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.002552307966398134</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.03675181367734131</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1200043433914448</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.08927661194831601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 26,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 15,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 14,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 11,17</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,3; 43,83</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 21,77</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 21,28</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 15,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>23.2909444355533</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.89562144372441</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.557400825006045</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.35942997993943</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3523080477313996</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1847210168746564</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.130384298679491</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1507828078367994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>16.11382893516844</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.850232070477235</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.63149036850009</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8352939364342449</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.238651832392077</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.07287241995006323</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.05955077595104825</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.01057173115758087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.1453511517235</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.958582003564744</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.648468495242057</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.644373762372826</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.06717590505426393</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.03479806230499866</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.05483977376392071</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1039410003090542</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>29.05416319121784</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.45414386170795</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.1284597458288</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.70875135004752</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.515604377749181</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2269018521212659</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2180732570947455</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1588479862166798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,38%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 17,45</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 10,33</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 6,73</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 6,82</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 26,3</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 13,07</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 8,78</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 8,81</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>9.377230418087223</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.826827175866921</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1235526058611103</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4077010698792183</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1278144338954837</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.05832253339940659</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.001536293048984229</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.004986232163041388</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.458836086823019</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.760158500704147</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.72385132935928</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.967626033193716</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.03137465666146115</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.008547639127896094</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08155863384576659</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.06974542872119117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.74603075426508</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.51607656161556</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.723526067405608</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.978544421658921</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2672520552620044</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1458611732243606</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.08870121881832682</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.09116171369465571</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
